--- a/data/transformed_data_2013.xlsx
+++ b/data/transformed_data_2013.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>672972.8962725461</v>
+        <v>680472.5226725462</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>65894.22</v>
+        <v>56669.0292</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>12325.46</v>
+        <v>10599.8956</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5101,7 +5101,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17744.34136671408</v>
+        <v>17548.69416671408</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5437,7 +5437,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>57.82</v>
+        <v>49.7252</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5605,7 +5605,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1455.3</v>
+        <v>1251.558</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7830,7 +7830,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13567.13856842105</v>
+        <v>14458.38976842105</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8166,7 +8166,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>12566.54</v>
+        <v>10807.2244</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8334,7 +8334,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6200.46</v>
+        <v>5332.3956</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5732.272820483643</v>
+        <v>5712.516020483643</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1696.38</v>
+        <v>1458.8868</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11077,7 +11077,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1837.5</v>
+        <v>1580.25</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13316,7 +13316,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14601.05278748222</v>
+        <v>15007.16478748222</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13652,7 +13652,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>11944.24</v>
+        <v>10272.0464</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13820,7 +13820,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9043.440000000001</v>
+        <v>7777.3584</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16059,7 +16059,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12377.7332</v>
+        <v>12302.136</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16395,7 +16395,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>788.9</v>
+        <v>678.454</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16563,7 +16563,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1328.88</v>
+        <v>1142.8368</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18802,7 +18802,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14650.89491834993</v>
+        <v>14201.97651834993</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19138,7 +19138,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7782.18</v>
+        <v>6692.6748</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19306,7 +19306,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10988.74</v>
+        <v>9450.3164</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21545,7 +21545,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7850.849199431011</v>
+        <v>8114.547599431012</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21881,7 +21881,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8522.08</v>
+        <v>7328.988799999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22049,7 +22049,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6638.52</v>
+        <v>5709.1272</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24288,7 +24288,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19417.3402116643</v>
+        <v>18362.6838116643</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24624,7 +24624,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5062.68</v>
+        <v>4353.9048</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24792,7 +24792,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>12595.94</v>
+        <v>10832.5084</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27031,7 +27031,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13674.04697752489</v>
+        <v>13237.88817752489</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27367,7 +27367,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1533.7</v>
+        <v>1318.982</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27535,7 +27535,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4649.12</v>
+        <v>3998.2432</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29760,7 +29760,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6436.866584921764</v>
+        <v>6767.518584921764</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30096,7 +30096,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8468.18</v>
+        <v>7282.6348</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30264,7 +30264,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6106.38</v>
+        <v>5251.4868</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32503,7 +32503,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>74254.23582475106</v>
+        <v>74111.27342475105</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32839,7 +32839,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4760.84</v>
+        <v>4094.3224</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -33007,7 +33007,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5782</v>
+        <v>4972.52</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35218,7 +35218,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7174.911861735419</v>
+        <v>7061.447461735418</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35554,7 +35554,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>218.54</v>
+        <v>187.9444</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35722,7 +35722,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1029</v>
+        <v>884.9399999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37947,7 +37947,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12475.23031920341</v>
+        <v>11775.51031920341</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38283,7 +38283,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>714.42</v>
+        <v>614.4011999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38451,7 +38451,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5712.42</v>
+        <v>4912.681199999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40676,7 +40676,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4015.650202560455</v>
+        <v>4003.302202560455</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -41012,7 +41012,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3533.88</v>
+        <v>3039.1368</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41180,7 +41180,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3622.08</v>
+        <v>3114.9888</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43419,7 +43419,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2791.186651493599</v>
+        <v>2738.913451493599</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43755,7 +43755,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7783.16</v>
+        <v>6693.5176</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43923,7 +43923,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8156.54</v>
+        <v>7014.6244</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46162,7 +46162,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11939.23129388336</v>
+        <v>11323.75209388336</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46498,7 +46498,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5878.04</v>
+        <v>5055.114399999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46666,7 +46666,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10274.32</v>
+        <v>8835.915199999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48905,7 +48905,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2345.147109530582</v>
+        <v>2470.822309530583</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49241,7 +49241,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7246.12</v>
+        <v>6231.6632</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49409,7 +49409,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6348.44</v>
+        <v>5459.6584</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51634,7 +51634,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9620.831214224751</v>
+        <v>8908.62601422475</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51970,7 +51970,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>848.6799999999999</v>
+        <v>729.8647999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52138,7 +52138,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5935.86</v>
+        <v>5104.839599999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54363,7 +54363,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5116.978858605975</v>
+        <v>5062.510458605974</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54699,7 +54699,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1736.56</v>
+        <v>1493.4416</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54867,7 +54867,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2125.62</v>
+        <v>1828.0332</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57106,7 +57106,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9683.729649502133</v>
+        <v>9542.002049502133</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57442,7 +57442,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1226.96</v>
+        <v>1055.1856</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57610,7 +57610,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2239.3</v>
+        <v>1925.798</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59835,7 +59835,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13906.74737809388</v>
+        <v>14069.32937809388</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60171,7 +60171,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4807.88</v>
+        <v>4134.7768</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60339,7 +60339,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3646.58</v>
+        <v>3136.0588</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62564,7 +62564,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>41321.84673513514</v>
+        <v>43671.67113513513</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62900,7 +62900,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>23710.12</v>
+        <v>20390.7032</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63068,7 +63068,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6925.66</v>
+        <v>5956.067599999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65307,7 +65307,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3348.565847510669</v>
+        <v>3287.237447510669</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65643,7 +65643,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2612.68</v>
+        <v>2246.9048</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65811,7 +65811,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3050.74</v>
+        <v>2623.6364</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68036,7 +68036,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>96827.99315846374</v>
+        <v>94389.53755846372</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68372,7 +68372,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>20888.7</v>
+        <v>17964.282</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68540,7 +68540,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>38306.24</v>
+        <v>32943.3664</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70779,7 +70779,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>46450.55333598862</v>
+        <v>45223.43653598861</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71115,7 +71115,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2014.88</v>
+        <v>1732.7968</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71283,7 +71283,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10780</v>
+        <v>9270.799999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73522,7 +73522,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>31770.87279260313</v>
+        <v>33990.08279260313</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73858,7 +73858,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>22220.52</v>
+        <v>19109.6472</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -74026,7 +74026,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6369.02</v>
+        <v>5477.3572</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76265,7 +76265,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>21808.34948108108</v>
+        <v>23142.89388108108</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76601,7 +76601,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>30037</v>
+        <v>25831.82</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76769,7 +76769,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>20504.54</v>
+        <v>17633.9044</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -79008,7 +79008,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>25824.82221450924</v>
+        <v>26033.50341450924</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79344,7 +79344,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5714.38</v>
+        <v>4914.3668</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79512,7 +79512,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4223.8</v>
+        <v>3632.468</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81751,7 +81751,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>25759.69528990042</v>
+        <v>25432.61048990042</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82087,7 +82087,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2903.74</v>
+        <v>2497.2164</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82255,7 +82255,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5240.059999999999</v>
+        <v>4506.4516</v>
       </c>
     </row>
     <row r="168" spans="1:4">
